--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Gdf9</t>
+  </si>
+  <si>
+    <t>Bmpr2</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Gdf9</t>
-  </si>
-  <si>
-    <t>Bmpr2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8788406666666667</v>
+        <v>1.008382</v>
       </c>
       <c r="H2">
-        <v>2.636522</v>
+        <v>3.025146</v>
       </c>
       <c r="I2">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="J2">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N2">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O2">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P2">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q2">
-        <v>28.13870200967933</v>
+        <v>37.12036591916532</v>
       </c>
       <c r="R2">
-        <v>253.248318087114</v>
+        <v>334.0832932724879</v>
       </c>
       <c r="S2">
-        <v>0.04458580604491729</v>
+        <v>0.06898160598685484</v>
       </c>
       <c r="T2">
-        <v>0.04458580604491729</v>
+        <v>0.06898160598685485</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8788406666666667</v>
+        <v>1.008382</v>
       </c>
       <c r="H3">
-        <v>2.636522</v>
+        <v>3.025146</v>
       </c>
       <c r="I3">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="J3">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>83.72704</v>
       </c>
       <c r="O3">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P3">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q3">
-        <v>24.52757588387556</v>
+        <v>28.14294668309333</v>
       </c>
       <c r="R3">
-        <v>220.74818295488</v>
+        <v>253.28652014784</v>
       </c>
       <c r="S3">
-        <v>0.03886397250073188</v>
+        <v>0.05229866708829738</v>
       </c>
       <c r="T3">
-        <v>0.03886397250073188</v>
+        <v>0.05229866708829738</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8788406666666667</v>
+        <v>1.008382</v>
       </c>
       <c r="H4">
-        <v>2.636522</v>
+        <v>3.025146</v>
       </c>
       <c r="I4">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="J4">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N4">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O4">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P4">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q4">
-        <v>17.84035509235623</v>
+        <v>22.14013434956333</v>
       </c>
       <c r="R4">
-        <v>160.563195831206</v>
+        <v>199.26120914607</v>
       </c>
       <c r="S4">
-        <v>0.02826806338283234</v>
+        <v>0.04114350670797347</v>
       </c>
       <c r="T4">
-        <v>0.02826806338283234</v>
+        <v>0.04114350670797347</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8788406666666667</v>
+        <v>1.008382</v>
       </c>
       <c r="H5">
-        <v>2.636522</v>
+        <v>3.025146</v>
       </c>
       <c r="I5">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="J5">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N5">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O5">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P5">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q5">
-        <v>24.48203113811311</v>
+        <v>13.34188341886933</v>
       </c>
       <c r="R5">
-        <v>220.338280243018</v>
+        <v>120.076950769824</v>
       </c>
       <c r="S5">
-        <v>0.03879180679812658</v>
+        <v>0.02479352027744479</v>
       </c>
       <c r="T5">
-        <v>0.03879180679812659</v>
+        <v>0.02479352027744479</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8788406666666667</v>
+        <v>1.008382</v>
       </c>
       <c r="H6">
-        <v>2.636522</v>
+        <v>3.025146</v>
       </c>
       <c r="I6">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="J6">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N6">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O6">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P6">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q6">
-        <v>15.44461902999712</v>
+        <v>22.265761268142</v>
       </c>
       <c r="R6">
-        <v>139.001571269974</v>
+        <v>200.391851413278</v>
       </c>
       <c r="S6">
-        <v>0.02447201680703741</v>
+        <v>0.04137696201974511</v>
       </c>
       <c r="T6">
-        <v>0.02447201680703741</v>
+        <v>0.04137696201974512</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8788406666666667</v>
+        <v>1.008382</v>
       </c>
       <c r="H7">
-        <v>2.636522</v>
+        <v>3.025146</v>
       </c>
       <c r="I7">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="J7">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N7">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O7">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P7">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q7">
-        <v>19.74658569178867</v>
+        <v>19.82629731496266</v>
       </c>
       <c r="R7">
-        <v>177.719271226098</v>
+        <v>178.436675834664</v>
       </c>
       <c r="S7">
-        <v>0.03128848798358136</v>
+        <v>0.03684365160993394</v>
       </c>
       <c r="T7">
-        <v>0.03128848798358137</v>
+        <v>0.03684365160993395</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.989906666666666</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H8">
-        <v>5.96972</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I8">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="J8">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N8">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O8">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P8">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q8">
-        <v>63.71278986529332</v>
+        <v>73.25206480446222</v>
       </c>
       <c r="R8">
-        <v>573.41510878764</v>
+        <v>659.26858324016</v>
       </c>
       <c r="S8">
-        <v>0.1009529896061795</v>
+        <v>0.1361259499183997</v>
       </c>
       <c r="T8">
-        <v>0.1009529896061795</v>
+        <v>0.1361259499183997</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.989906666666666</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H9">
-        <v>5.96972</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I9">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="J9">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>83.72704</v>
       </c>
       <c r="O9">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P9">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q9">
-        <v>55.53633169208889</v>
+        <v>55.5363316920889</v>
       </c>
       <c r="R9">
-        <v>499.8269852288</v>
+        <v>499.8269852288001</v>
       </c>
       <c r="S9">
-        <v>0.08799738212579643</v>
+        <v>0.1032044069576644</v>
       </c>
       <c r="T9">
-        <v>0.08799738212579644</v>
+        <v>0.1032044069576644</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.989906666666666</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H10">
-        <v>5.96972</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I10">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="J10">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N10">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O10">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P10">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q10">
-        <v>40.39485526839555</v>
+        <v>43.6905864474889</v>
       </c>
       <c r="R10">
-        <v>363.55369741556</v>
+        <v>393.2152780274001</v>
       </c>
       <c r="S10">
-        <v>0.06400569513084355</v>
+        <v>0.08119119370262573</v>
       </c>
       <c r="T10">
-        <v>0.06400569513084355</v>
+        <v>0.08119119370262573</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.989906666666666</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H11">
-        <v>5.96972</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I11">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="J11">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N11">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O11">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P11">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q11">
-        <v>55.43320743229777</v>
+        <v>26.32841796174223</v>
       </c>
       <c r="R11">
-        <v>498.8988668906799</v>
+        <v>236.95576165568</v>
       </c>
       <c r="S11">
-        <v>0.08783398161627788</v>
+        <v>0.04892668779314047</v>
       </c>
       <c r="T11">
-        <v>0.0878339816162779</v>
+        <v>0.04892668779314047</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,14 +1148,14 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.989906666666666</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H12">
-        <v>5.96972</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I12">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="J12">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N12">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O12">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P12">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q12">
-        <v>34.97033255013778</v>
+        <v>43.93849432644</v>
       </c>
       <c r="R12">
-        <v>314.73299295124</v>
+        <v>395.44644893796</v>
       </c>
       <c r="S12">
-        <v>0.0554105325778838</v>
+        <v>0.08165188645721985</v>
       </c>
       <c r="T12">
-        <v>0.05541053257788381</v>
+        <v>0.08165188645721985</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.989906666666666</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H13">
-        <v>5.96972</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I13">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="J13">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N13">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O13">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P13">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q13">
-        <v>44.71101987238666</v>
+        <v>39.12453931383111</v>
       </c>
       <c r="R13">
-        <v>402.39917885148</v>
+        <v>352.12085382448</v>
       </c>
       <c r="S13">
-        <v>0.07084466296330745</v>
+        <v>0.07270600621882543</v>
       </c>
       <c r="T13">
-        <v>0.07084466296330746</v>
+        <v>0.07270600621882543</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1457676666666667</v>
+        <v>0.199448</v>
       </c>
       <c r="H14">
-        <v>0.437303</v>
+        <v>0.598344</v>
       </c>
       <c r="I14">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741227</v>
       </c>
       <c r="J14">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741228</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N14">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O14">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P14">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q14">
-        <v>4.667186090212333</v>
+        <v>7.342041747914665</v>
       </c>
       <c r="R14">
-        <v>42.00467481191099</v>
+        <v>66.07837573123199</v>
       </c>
       <c r="S14">
-        <v>0.007395161785435685</v>
+        <v>0.01364388034580766</v>
       </c>
       <c r="T14">
-        <v>0.007395161785435686</v>
+        <v>0.01364388034580766</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1457676666666667</v>
+        <v>0.199448</v>
       </c>
       <c r="H15">
-        <v>0.437303</v>
+        <v>0.598344</v>
       </c>
       <c r="I15">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741227</v>
       </c>
       <c r="J15">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741228</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>83.72704</v>
       </c>
       <c r="O15">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P15">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q15">
-        <v>4.068231752568889</v>
+        <v>5.566396891306667</v>
       </c>
       <c r="R15">
-        <v>36.61408577312</v>
+        <v>50.09757202176</v>
       </c>
       <c r="S15">
-        <v>0.006446117941169294</v>
+        <v>0.0103441598059334</v>
       </c>
       <c r="T15">
-        <v>0.006446117941169296</v>
+        <v>0.0103441598059334</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1457676666666667</v>
+        <v>0.199448</v>
       </c>
       <c r="H16">
-        <v>0.437303</v>
+        <v>0.598344</v>
       </c>
       <c r="I16">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741227</v>
       </c>
       <c r="J16">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741228</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N16">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O16">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P16">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q16">
-        <v>2.959065315196556</v>
+        <v>4.379099900386667</v>
       </c>
       <c r="R16">
-        <v>26.631587836769</v>
+        <v>39.41189910348</v>
       </c>
       <c r="S16">
-        <v>0.004688642431772892</v>
+        <v>0.008137779260133454</v>
       </c>
       <c r="T16">
-        <v>0.004688642431772892</v>
+        <v>0.008137779260133454</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1457676666666667</v>
+        <v>0.199448</v>
       </c>
       <c r="H17">
-        <v>0.437303</v>
+        <v>0.598344</v>
       </c>
       <c r="I17">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741227</v>
       </c>
       <c r="J17">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741228</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N17">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O17">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P17">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q17">
-        <v>4.060677537600777</v>
+        <v>2.638892764970666</v>
       </c>
       <c r="R17">
-        <v>36.546097838407</v>
+        <v>23.750034884736</v>
       </c>
       <c r="S17">
-        <v>0.006434148278770724</v>
+        <v>0.004903913429926167</v>
       </c>
       <c r="T17">
-        <v>0.006434148278770726</v>
+        <v>0.004903913429926167</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1457676666666667</v>
+        <v>0.199448</v>
       </c>
       <c r="H18">
-        <v>0.437303</v>
+        <v>0.598344</v>
       </c>
       <c r="I18">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741227</v>
       </c>
       <c r="J18">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741228</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N18">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O18">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P18">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q18">
-        <v>2.561699934866778</v>
+        <v>4.403947664087999</v>
       </c>
       <c r="R18">
-        <v>23.055299413801</v>
+        <v>39.635528976792</v>
       </c>
       <c r="S18">
-        <v>0.004059016524712435</v>
+        <v>0.008183954415007529</v>
       </c>
       <c r="T18">
-        <v>0.004059016524712436</v>
+        <v>0.00818395441500753</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1457676666666667</v>
+        <v>0.199448</v>
       </c>
       <c r="H19">
-        <v>0.437303</v>
+        <v>0.598344</v>
       </c>
       <c r="I19">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741227</v>
       </c>
       <c r="J19">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741228</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N19">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O19">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P19">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q19">
-        <v>3.275239562869666</v>
+        <v>3.921445788277333</v>
       </c>
       <c r="R19">
-        <v>29.477156065827</v>
+        <v>35.293012094496</v>
       </c>
       <c r="S19">
-        <v>0.005189620894756075</v>
+        <v>0.00728731039060406</v>
       </c>
       <c r="T19">
-        <v>0.005189620894756076</v>
+        <v>0.007287310390604062</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.9113933333333333</v>
+        <v>0.4028163333333333</v>
       </c>
       <c r="H20">
-        <v>2.73418</v>
+        <v>1.208449</v>
       </c>
       <c r="I20">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="J20">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N20">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O20">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P20">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q20">
-        <v>29.18097260740666</v>
+        <v>14.82839805901911</v>
       </c>
       <c r="R20">
-        <v>262.6287534666599</v>
+        <v>133.455582531172</v>
       </c>
       <c r="S20">
-        <v>0.04623728501863134</v>
+        <v>0.02755594367121743</v>
       </c>
       <c r="T20">
-        <v>0.04623728501863135</v>
+        <v>0.02755594367121744</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.9113933333333333</v>
+        <v>0.4028163333333333</v>
       </c>
       <c r="H21">
-        <v>2.73418</v>
+        <v>1.208449</v>
       </c>
       <c r="I21">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="J21">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>83.72704</v>
       </c>
       <c r="O21">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P21">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q21">
-        <v>25.43608869191111</v>
+        <v>11.24220641788444</v>
       </c>
       <c r="R21">
-        <v>228.9247982272</v>
+        <v>101.17985776096</v>
       </c>
       <c r="S21">
-        <v>0.04030351210118902</v>
+        <v>0.02089164355842194</v>
       </c>
       <c r="T21">
-        <v>0.04030351210118902</v>
+        <v>0.02089164355842194</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.9113933333333333</v>
+        <v>0.4028163333333333</v>
       </c>
       <c r="H22">
-        <v>2.73418</v>
+        <v>1.208449</v>
       </c>
       <c r="I22">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="J22">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N22">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O22">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P22">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q22">
-        <v>18.50117013490445</v>
+        <v>8.844275024939444</v>
       </c>
       <c r="R22">
-        <v>166.51053121414</v>
+        <v>79.598475224455</v>
       </c>
       <c r="S22">
-        <v>0.02931512558593197</v>
+        <v>0.01643551403394872</v>
       </c>
       <c r="T22">
-        <v>0.02931512558593197</v>
+        <v>0.01643551403394872</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.9113933333333333</v>
+        <v>0.4028163333333333</v>
       </c>
       <c r="H23">
-        <v>2.73418</v>
+        <v>1.208449</v>
       </c>
       <c r="I23">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="J23">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N23">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O23">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P23">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q23">
-        <v>25.38885694760222</v>
+        <v>5.32965538709511</v>
       </c>
       <c r="R23">
-        <v>228.49971252842</v>
+        <v>47.96689848385599</v>
       </c>
       <c r="S23">
-        <v>0.04022867334742579</v>
+        <v>0.00990421777519428</v>
       </c>
       <c r="T23">
-        <v>0.0402286733474258</v>
+        <v>0.00990421777519428</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.9113933333333333</v>
+        <v>0.4028163333333333</v>
       </c>
       <c r="H24">
-        <v>2.73418</v>
+        <v>1.208449</v>
       </c>
       <c r="I24">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="J24">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N24">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O24">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P24">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q24">
-        <v>16.01669489556222</v>
+        <v>8.894458957922998</v>
       </c>
       <c r="R24">
-        <v>144.15025406006</v>
+        <v>80.05013062130699</v>
       </c>
       <c r="S24">
-        <v>0.02537847168105009</v>
+        <v>0.01652877195870843</v>
       </c>
       <c r="T24">
-        <v>0.02537847168105009</v>
+        <v>0.01652877195870843</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.9113933333333333</v>
+        <v>0.4028163333333333</v>
       </c>
       <c r="H25">
-        <v>2.73418</v>
+        <v>1.208449</v>
       </c>
       <c r="I25">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="J25">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N25">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O25">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P25">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q25">
-        <v>20.47800840151333</v>
+        <v>7.919971189479554</v>
       </c>
       <c r="R25">
-        <v>184.30207561362</v>
+        <v>71.279740705316</v>
       </c>
       <c r="S25">
-        <v>0.03244742811740182</v>
+        <v>0.01471785954938144</v>
       </c>
       <c r="T25">
-        <v>0.03244742811740182</v>
+        <v>0.01471785954938144</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.068319</v>
+        <v>0.1983843333333334</v>
       </c>
       <c r="H26">
-        <v>0.204957</v>
+        <v>0.595153</v>
       </c>
       <c r="I26">
-        <v>0.01603495508644733</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="J26">
-        <v>0.01603495508644732</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N26">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O26">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P26">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q26">
-        <v>2.187436307301</v>
+        <v>7.302886253387111</v>
       </c>
       <c r="R26">
-        <v>19.686926765709</v>
+        <v>65.72597628048399</v>
       </c>
       <c r="S26">
-        <v>0.003465995371761781</v>
+        <v>0.01357111681482303</v>
       </c>
       <c r="T26">
-        <v>0.00346599537176178</v>
+        <v>0.01357111681482303</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.068319</v>
+        <v>0.1983843333333334</v>
       </c>
       <c r="H27">
-        <v>0.204957</v>
+        <v>0.595153</v>
       </c>
       <c r="I27">
-        <v>0.01603495508644733</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="J27">
-        <v>0.01603495508644732</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>83.72704</v>
       </c>
       <c r="O27">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P27">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q27">
-        <v>1.90671588192</v>
+        <v>5.536711004124445</v>
       </c>
       <c r="R27">
-        <v>17.16044293728</v>
+        <v>49.83039903712</v>
       </c>
       <c r="S27">
-        <v>0.003021193531414683</v>
+        <v>0.01028899385801593</v>
       </c>
       <c r="T27">
-        <v>0.003021193531414683</v>
+        <v>0.01028899385801593</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.068319</v>
+        <v>0.1983843333333334</v>
       </c>
       <c r="H28">
-        <v>0.204957</v>
+        <v>0.595153</v>
       </c>
       <c r="I28">
-        <v>0.01603495508644733</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="J28">
-        <v>0.01603495508644732</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N28">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O28">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P28">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q28">
-        <v>1.386867114579</v>
+        <v>4.355745930459445</v>
       </c>
       <c r="R28">
-        <v>12.481804031211</v>
+        <v>39.201713374135</v>
       </c>
       <c r="S28">
-        <v>0.002197492555250883</v>
+        <v>0.008094380055630552</v>
       </c>
       <c r="T28">
-        <v>0.002197492555250883</v>
+        <v>0.008094380055630552</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.068319</v>
+        <v>0.1983843333333334</v>
       </c>
       <c r="H29">
-        <v>0.204957</v>
+        <v>0.595153</v>
       </c>
       <c r="I29">
-        <v>0.01603495508644733</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="J29">
-        <v>0.01603495508644732</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N29">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O29">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P29">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q29">
-        <v>1.903175340837</v>
+        <v>2.624819411159111</v>
       </c>
       <c r="R29">
-        <v>17.128578067533</v>
+        <v>23.623374700432</v>
       </c>
       <c r="S29">
-        <v>0.003015583539952874</v>
+        <v>0.004877760601862556</v>
       </c>
       <c r="T29">
-        <v>0.003015583539952874</v>
+        <v>0.004877760601862555</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.068319</v>
+        <v>0.1983843333333334</v>
       </c>
       <c r="H30">
-        <v>0.204957</v>
+        <v>0.595153</v>
       </c>
       <c r="I30">
-        <v>0.01603495508644733</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="J30">
-        <v>0.01603495508644732</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N30">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O30">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P30">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q30">
-        <v>1.200628245291</v>
+        <v>4.380461179731</v>
       </c>
       <c r="R30">
-        <v>10.805654207619</v>
+        <v>39.424150617579</v>
       </c>
       <c r="S30">
-        <v>0.001902396850365734</v>
+        <v>0.008140308955976791</v>
       </c>
       <c r="T30">
-        <v>0.001902396850365734</v>
+        <v>0.008140308955976791</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.068319</v>
+        <v>0.1983843333333334</v>
       </c>
       <c r="H31">
-        <v>0.204957</v>
+        <v>0.595153</v>
       </c>
       <c r="I31">
-        <v>0.01603495508644733</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="J31">
-        <v>0.01603495508644732</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N31">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O31">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P31">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q31">
-        <v>1.535052984057</v>
+        <v>3.900532511783556</v>
       </c>
       <c r="R31">
-        <v>13.815476856513</v>
+        <v>35.104792606052</v>
       </c>
       <c r="S31">
-        <v>0.002432293237701368</v>
+        <v>0.007248446781281637</v>
       </c>
       <c r="T31">
-        <v>0.002432293237701368</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.266402</v>
-      </c>
-      <c r="H32">
-        <v>0.7992060000000001</v>
-      </c>
-      <c r="I32">
-        <v>0.06252644366778994</v>
-      </c>
-      <c r="J32">
-        <v>0.06252644366778992</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>32.017979</v>
-      </c>
-      <c r="N32">
-        <v>96.05393699999999</v>
-      </c>
-      <c r="O32">
-        <v>0.2161524839374963</v>
-      </c>
-      <c r="P32">
-        <v>0.2161524839374964</v>
-      </c>
-      <c r="Q32">
-        <v>8.529653641557999</v>
-      </c>
-      <c r="R32">
-        <v>76.76688277402199</v>
-      </c>
-      <c r="S32">
-        <v>0.01351524611057073</v>
-      </c>
-      <c r="T32">
-        <v>0.01351524611057073</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.266402</v>
-      </c>
-      <c r="H33">
-        <v>0.7992060000000001</v>
-      </c>
-      <c r="I33">
-        <v>0.06252644366778994</v>
-      </c>
-      <c r="J33">
-        <v>0.06252644366778992</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>27.90901333333333</v>
-      </c>
-      <c r="N33">
-        <v>83.72704</v>
-      </c>
-      <c r="O33">
-        <v>0.1884129712323412</v>
-      </c>
-      <c r="P33">
-        <v>0.1884129712323412</v>
-      </c>
-      <c r="Q33">
-        <v>7.435016970026668</v>
-      </c>
-      <c r="R33">
-        <v>66.91515273024001</v>
-      </c>
-      <c r="S33">
-        <v>0.01178079303203991</v>
-      </c>
-      <c r="T33">
-        <v>0.01178079303203991</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.266402</v>
-      </c>
-      <c r="H34">
-        <v>0.7992060000000001</v>
-      </c>
-      <c r="I34">
-        <v>0.06252644366778994</v>
-      </c>
-      <c r="J34">
-        <v>0.06252644366778992</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>20.29987433333334</v>
-      </c>
-      <c r="N34">
-        <v>60.89962300000001</v>
-      </c>
-      <c r="O34">
-        <v>0.1370438858982645</v>
-      </c>
-      <c r="P34">
-        <v>0.1370438858982645</v>
-      </c>
-      <c r="Q34">
-        <v>5.407927122148668</v>
-      </c>
-      <c r="R34">
-        <v>48.67134409933801</v>
-      </c>
-      <c r="S34">
-        <v>0.008568866811632866</v>
-      </c>
-      <c r="T34">
-        <v>0.008568866811632865</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.266402</v>
-      </c>
-      <c r="H35">
-        <v>0.7992060000000001</v>
-      </c>
-      <c r="I35">
-        <v>0.06252644366778994</v>
-      </c>
-      <c r="J35">
-        <v>0.06252644366778992</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>27.85718966666667</v>
-      </c>
-      <c r="N35">
-        <v>83.571569</v>
-      </c>
-      <c r="O35">
-        <v>0.1880631111029199</v>
-      </c>
-      <c r="P35">
-        <v>0.1880631111029199</v>
-      </c>
-      <c r="Q35">
-        <v>7.421211041579334</v>
-      </c>
-      <c r="R35">
-        <v>66.79089937421401</v>
-      </c>
-      <c r="S35">
-        <v>0.01175891752236604</v>
-      </c>
-      <c r="T35">
-        <v>0.01175891752236604</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.266402</v>
-      </c>
-      <c r="H36">
-        <v>0.7992060000000001</v>
-      </c>
-      <c r="I36">
-        <v>0.06252644366778994</v>
-      </c>
-      <c r="J36">
-        <v>0.06252644366778992</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>17.57385566666667</v>
-      </c>
-      <c r="N36">
-        <v>52.72156700000001</v>
-      </c>
-      <c r="O36">
-        <v>0.1186406098495176</v>
-      </c>
-      <c r="P36">
-        <v>0.1186406098495176</v>
-      </c>
-      <c r="Q36">
-        <v>4.681710297311334</v>
-      </c>
-      <c r="R36">
-        <v>42.13539267580201</v>
-      </c>
-      <c r="S36">
-        <v>0.007418175408468105</v>
-      </c>
-      <c r="T36">
-        <v>0.007418175408468104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.266402</v>
-      </c>
-      <c r="H37">
-        <v>0.7992060000000001</v>
-      </c>
-      <c r="I37">
-        <v>0.06252644366778994</v>
-      </c>
-      <c r="J37">
-        <v>0.06252644366778992</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>22.468903</v>
-      </c>
-      <c r="N37">
-        <v>67.40670900000001</v>
-      </c>
-      <c r="O37">
-        <v>0.1516869379794603</v>
-      </c>
-      <c r="P37">
-        <v>0.1516869379794604</v>
-      </c>
-      <c r="Q37">
-        <v>5.985760697006</v>
-      </c>
-      <c r="R37">
-        <v>53.87184627305401</v>
-      </c>
-      <c r="S37">
-        <v>0.009484444782712273</v>
-      </c>
-      <c r="T37">
-        <v>0.009484444782712272</v>
+        <v>0.007248446781281637</v>
       </c>
     </row>
   </sheetData>
